--- a/02_MasterWifoMannheim/99_Backup/Course118.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course118.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F59281159EC60374B9BF9D7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF85C8F0-71A9-4AA1-A425-92DDFB72BA1E}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 655 Corporate Strategy: Managing Business Groups</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>In this course, we will critically reflect upon the role of corporate centers of multinational companies (MNCs). centers and their opportunities for value creation in their quest to turn a conglomerate discount into a conglomerate premium.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will acquire and demonstrate expert knowledge in the specific subject area of corporate strategy (i.e. about the challenges and value creation opportunities faced by corporate centers of MNCs). Students will be able to apply and critically reflect upon contemporary theories, models and by corporate centers to fulfill their “parenting” role). When analyzing fictitious or real-life business cases, students will be able to identify key issues, derive appropriate solutions, and have good understanding of their impact on strategic decision outcomes.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 minutes)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Matthias Brauer</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
-  </si>
-  <si>
-    <t>Management (MAN)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 655 Corporate Strategy: Managing Business Groups</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>In this course, we will critically reflect upon the role of corporate centers of multinational companies (MNCs). centers and their opportunities for value creation in their quest to turn a conglomerate discount into a conglomerate premium.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will acquire and demonstrate expert knowledge in the specific subject area of corporate strategy (i.e. about the challenges and value creation opportunities faced by corporate centers of MNCs). Students will be able to apply and critically reflect upon contemporary theories, models and by corporate centers to fulfill their “parenting” role). When analyzing fictitious or real-life business cases, students will be able to identify key issues, derive appropriate solutions, and have good understanding of their impact on strategic decision outcomes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management (MAN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 minutes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Matthias Brauer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
+        </is>
       </c>
     </row>
   </sheetData>
